--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_17.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A11A69A-5FA7-D941-8023-415F21A717C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247A933A-6834-5B49-A2E8-125C1625CE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{860FE318-2297-E74A-AE2D-977412085F3A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="949">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -2877,6 +2877,9 @@
   </si>
   <si>
     <t>S009510</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -3228,15 +3231,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E713484-E67F-CA4D-9076-3AE289EB323E}">
-  <dimension ref="A1:S190"/>
+  <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="T210" sqref="T210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3294,8 +3297,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
